--- a/t/data/stock/transgenic_data_upload.xlsx
+++ b/t/data/stock/transgenic_data_upload.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t xml:space="preserve">accession_name</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">batch_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number_of_insertions</t>
   </si>
   <si>
     <t xml:space="preserve">new_accession_1</t>
@@ -194,16 +197,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D11"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -219,191 +224,239 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="E3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>1</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" s="3" t="n">
         <v>2</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>2</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
